--- a/Tables/Table_S7.xlsx
+++ b/Tables/Table_S7.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,14 +415,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>-3.75</t>
         </is>
       </c>
       <c r="F2">
-        <v>-5.82</v>
+        <v>-5.83</v>
       </c>
       <c r="G2">
-        <v>-1.77</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>-1.14</v>
+        <v>-1.28</v>
       </c>
       <c r="G3">
         <v>3.78</v>
@@ -477,14 +477,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="F4">
-        <v>-2.42</v>
+        <v>-2.44</v>
       </c>
       <c r="G4">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -508,14 +508,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="F5">
-        <v>-0.3</v>
+        <v>-0.26</v>
       </c>
       <c r="G5">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="6">
@@ -614,14 +614,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-6.2</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="F9">
-        <v>-10.74</v>
+        <v>-11.74</v>
       </c>
       <c r="G9">
-        <v>-1.7</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="10">
@@ -645,14 +645,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="F10">
-        <v>-4.84</v>
+        <v>-5.84</v>
       </c>
       <c r="G10">
-        <v>6.51</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="11">
@@ -676,14 +676,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="F11">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="G11">
-        <v>3.14</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="12">
@@ -707,14 +707,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="F12">
-        <v>-0.77</v>
+        <v>-0.95</v>
       </c>
       <c r="G12">
-        <v>5.42</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="13">
@@ -764,6 +764,31 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>push</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>random (var)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0%</t>
         </is>
       </c>
     </row>
